--- a/data/DCP3 interventions.xlsx
+++ b/data/DCP3 interventions.xlsx
@@ -249,9 +249,6 @@
     <t>Epilepsy: 0.4</t>
   </si>
   <si>
-    <t>Iron-deficiency anemia: 0.8; Other nutritional deficiencies: 0.5</t>
-  </si>
-  <si>
     <t>Depressive disorders: 0.2; Anxiety disorders: 0.2</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>Anxiety disorders: 0.2; Attention-deficit/hyperactivity disorder: 0.05; Conduct disorder: 0.05</t>
   </si>
   <si>
-    <t>Ischemic heart disease: 0.05; Hemorrhagic stroke: 0.05; Ischemic stroke: 0.05</t>
-  </si>
-  <si>
     <t>HIV/AIDS: 0.2; Sexually transmitted diseases excluding HIV: 0.1; Acute hepatitis A: 0.1; Acute hepatitis E: 0.1</t>
   </si>
   <si>
@@ -298,6 +292,12 @@
   </si>
   <si>
     <t>DALYs averted</t>
+  </si>
+  <si>
+    <t>Ischemic heart disease: 0.05; Stroke: 0.05; Ischemic stroke: 0.05</t>
+  </si>
+  <si>
+    <t>Dietary iron deficiency: 0.8; Other nutritional deficiencies: 0.5</t>
   </si>
 </sst>
 </file>
@@ -1442,22 +1442,14 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1479,7 +1471,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1498,6 +1489,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1571,6 +1587,55 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
@@ -1590,6 +1655,66 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1647,116 +1772,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1781,21 +1796,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1874,23 +1874,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:K31"/>
   <sortState ref="A2:K31">
     <sortCondition ref="C1:C31"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="No." dataDxfId="22" totalsRowDxfId="13"/>
-    <tableColumn id="27" name="Active" dataDxfId="21" totalsRowDxfId="12"/>
-    <tableColumn id="3" name="Short name" dataDxfId="0" totalsRowDxfId="1"/>
-    <tableColumn id="4" name="Platform" dataDxfId="20" totalsRowDxfId="11"/>
-    <tableColumn id="5" name="Causes of burden (max coverage)" dataDxfId="19" totalsRowDxfId="10"/>
-    <tableColumn id="11" name="ICER" dataDxfId="18" totalsRowDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="12" name="Unit cost" dataDxfId="17" totalsRowDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="13" name="Spending" dataDxfId="16" totalsRowDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="14" name="FRP" dataDxfId="15" totalsRowDxfId="6"/>
-    <tableColumn id="15" name="Equity" dataDxfId="3" totalsRowDxfId="5"/>
-    <tableColumn id="7" name="DALYs averted" dataDxfId="2" totalsRowDxfId="4">
+    <tableColumn id="1" name="No." dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="27" name="Active" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" name="Short name" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="Platform" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="Causes of burden (max coverage)" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="11" name="ICER" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="12" name="Unit cost" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="13" name="Spending" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="14" name="FRP" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="15" name="Equity" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="DALYs averted" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Spending]]/Table1[[#This Row],[ICER]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2153,7 +2153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2164,8 +2164,8 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,7 +2216,7 @@
         <v>38</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="6">
         <v>576</v>
@@ -2305,7 +2305,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="6">
         <v>5488</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2">
         <v>95</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2">
         <v>1186</v>
@@ -2629,7 +2629,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F13" s="6">
         <v>380</v>
@@ -2665,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F14" s="6">
         <v>285</v>
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="6">
         <v>2040</v>
@@ -2773,7 +2773,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" s="11">
         <v>63</v>
@@ -2845,7 +2845,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="6">
         <v>4393</v>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2">
         <v>440.3</v>
@@ -3025,7 +3025,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="6">
         <v>11484</v>
@@ -3061,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="6">
         <v>566</v>
@@ -3097,7 +3097,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2">
         <v>437</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="6">
         <v>624</v>
@@ -3169,7 +3169,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F28" s="6">
         <v>28</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" s="6">
         <v>1830</v>
